--- a/raw_data/HSE资源费用统计总表_202505.xlsx
+++ b/raw_data/HSE资源费用统计总表_202505.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_work\02_work\04_Infra\04_IT\统计\gen_script_new\202505_w5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_Work_Station\Work_Platform\A_Plan\Agent\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D7CD1-D65C-4CD8-963F-8E57A8057B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E040DF-F234-4302-A1D7-EC2606FEF9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="739" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="739" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="费用统计" sheetId="9" r:id="rId1"/>
@@ -28,35 +28,24 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">前端运行数据统计!$A$1:$K$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">中端运行数据统计!$A$1:$K$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -9363,30 +9352,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.08203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="6" max="6" width="6.75" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="7.08203125" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="15" width="8.83203125" customWidth="1"/>
+    <col min="12" max="15" width="8.875" customWidth="1"/>
     <col min="16" max="16" width="8.25" customWidth="1"/>
-    <col min="17" max="17" width="6.08203125" customWidth="1"/>
+    <col min="17" max="17" width="6.125" customWidth="1"/>
     <col min="18" max="18" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="263" t="s">
         <v>0</v>
       </c>
@@ -9419,7 +9408,7 @@
       <c r="T1" s="311"/>
       <c r="U1" s="312"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="264"/>
       <c r="B2" s="267"/>
       <c r="C2" s="267"/>
@@ -9456,7 +9445,7 @@
       <c r="T2" s="307"/>
       <c r="U2" s="309"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="265"/>
       <c r="B3" s="268"/>
       <c r="C3" s="268"/>
@@ -9515,7 +9504,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="273" t="s">
         <v>21</v>
       </c>
@@ -9578,7 +9567,7 @@
       <c r="T4" s="238"/>
       <c r="U4" s="251"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="274"/>
       <c r="B5" s="145" t="s">
         <v>22</v>
@@ -9639,7 +9628,7 @@
       <c r="T5" s="238"/>
       <c r="U5" s="252"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="173" t="s">
         <v>158</v>
       </c>
@@ -9702,7 +9691,7 @@
       <c r="T6" s="238"/>
       <c r="U6" s="252"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="275" t="s">
         <v>17</v>
       </c>
@@ -9765,7 +9754,7 @@
       <c r="T7" s="238"/>
       <c r="U7" s="252"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="273"/>
       <c r="B8" s="174" t="s">
         <v>23</v>
@@ -9826,7 +9815,7 @@
       <c r="T8" s="238"/>
       <c r="U8" s="252"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="273"/>
       <c r="B9" s="174" t="s">
         <v>19</v>
@@ -9887,7 +9876,7 @@
       <c r="T9" s="238"/>
       <c r="U9" s="252"/>
     </row>
-    <row r="10" spans="1:21" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="273"/>
       <c r="B10" s="145" t="s">
         <v>18</v>
@@ -9948,7 +9937,7 @@
       <c r="T10" s="238"/>
       <c r="U10" s="252"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="273"/>
       <c r="B11" s="174" t="s">
         <v>159</v>
@@ -10009,7 +9998,7 @@
       <c r="T11" s="238"/>
       <c r="U11" s="252"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="274"/>
       <c r="B12" s="174" t="s">
         <v>20</v>
@@ -10070,7 +10059,7 @@
       <c r="T12" s="238"/>
       <c r="U12" s="252"/>
     </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="173" t="s">
         <v>84</v>
       </c>
@@ -10133,7 +10122,7 @@
       <c r="T13" s="238"/>
       <c r="U13" s="252"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="275" t="s">
         <v>13</v>
       </c>
@@ -10196,7 +10185,7 @@
       <c r="T14" s="238"/>
       <c r="U14" s="252"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="273"/>
       <c r="B15" s="174" t="s">
         <v>114</v>
@@ -10257,7 +10246,7 @@
       <c r="T15" s="238"/>
       <c r="U15" s="252"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="269"/>
       <c r="B16" s="174" t="s">
         <v>356</v>
@@ -10313,7 +10302,7 @@
       <c r="T16" s="151"/>
       <c r="U16" s="253"/>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="269"/>
       <c r="B17" s="174" t="s">
         <v>511</v>
@@ -10369,7 +10358,7 @@
       <c r="T17" s="151"/>
       <c r="U17" s="253"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="270"/>
       <c r="B18" s="174" t="s">
         <v>512</v>
@@ -10425,7 +10414,7 @@
       <c r="T18" s="151"/>
       <c r="U18" s="253"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="202" t="s">
         <v>191</v>
       </c>
@@ -10488,7 +10477,7 @@
       <c r="T19" s="239"/>
       <c r="U19" s="251"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="212" t="s">
         <v>198</v>
       </c>
@@ -10551,7 +10540,7 @@
       <c r="T20" s="239"/>
       <c r="U20" s="251"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="272" t="s">
         <v>13</v>
       </c>
@@ -10614,7 +10603,7 @@
       <c r="T21" s="239"/>
       <c r="U21" s="251"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="272"/>
       <c r="B22" s="204" t="s">
         <v>203</v>
@@ -10675,7 +10664,7 @@
       <c r="T22" s="239"/>
       <c r="U22" s="251"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="272"/>
       <c r="B23" s="204" t="s">
         <v>206</v>
@@ -10736,7 +10725,7 @@
       <c r="T23" s="239"/>
       <c r="U23" s="251"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="148" t="s">
         <v>13</v>
       </c>
@@ -10792,7 +10781,7 @@
       <c r="T24" s="151"/>
       <c r="U24" s="253"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="149" t="s">
         <v>13</v>
       </c>
@@ -10850,7 +10839,7 @@
       <c r="T25" s="240"/>
       <c r="U25" s="254"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="216" t="s">
         <v>532</v>
       </c>
@@ -10908,12 +10897,12 @@
       <c r="T26" s="215"/>
       <c r="U26" s="215"/>
     </row>
-    <row r="28" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="122" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="155" t="s">
         <v>170</v>
       </c>
@@ -10932,7 +10921,7 @@
       </c>
       <c r="G29" s="315"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="269" t="s">
         <v>172</v>
       </c>
@@ -10951,7 +10940,7 @@
       </c>
       <c r="G30" s="316"/>
     </row>
-    <row r="31" spans="1:21" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="270"/>
       <c r="B31" s="2" t="s">
         <v>304</v>
@@ -10968,7 +10957,7 @@
       </c>
       <c r="G31" s="284"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="271" t="s">
         <v>264</v>
       </c>
@@ -10987,7 +10976,7 @@
       </c>
       <c r="G32" s="284"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="270"/>
       <c r="B33" s="134" t="s">
         <v>249</v>
@@ -11004,7 +10993,7 @@
       </c>
       <c r="G33" s="284"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="271" t="s">
         <v>251</v>
       </c>
@@ -11023,7 +11012,7 @@
       </c>
       <c r="G34" s="284"/>
     </row>
-    <row r="35" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="288"/>
       <c r="B35" s="136" t="s">
         <v>249</v>
@@ -11040,7 +11029,7 @@
       </c>
       <c r="G35" s="295"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C36" s="120"/>
       <c r="D36" s="120"/>
       <c r="E36" s="120"/>
@@ -11055,7 +11044,7 @@
       <c r="N36" s="120"/>
       <c r="O36" s="120"/>
     </row>
-    <row r="37" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="122" t="s">
         <v>274</v>
       </c>
@@ -11073,7 +11062,7 @@
       <c r="N37" s="120"/>
       <c r="O37" s="120"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="289" t="s">
         <v>173</v>
       </c>
@@ -11109,7 +11098,7 @@
       <c r="Q38" s="300"/>
       <c r="R38" s="302"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="290"/>
       <c r="B39" s="292"/>
       <c r="C39" s="294"/>
@@ -11159,7 +11148,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="296" t="s">
         <v>269</v>
       </c>
@@ -11231,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="297"/>
       <c r="B41" s="121" t="s">
         <v>291</v>
@@ -11301,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="297"/>
       <c r="B42" s="121" t="s">
         <v>292</v>
@@ -11371,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="297"/>
       <c r="B43" s="121" t="s">
         <v>293</v>
@@ -11441,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="297"/>
       <c r="B44" s="121" t="s">
         <v>294</v>
@@ -11511,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="297"/>
       <c r="B45" s="121" t="s">
         <v>295</v>
@@ -11581,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="297"/>
       <c r="B46" s="121" t="s">
         <v>296</v>
@@ -11651,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="298"/>
       <c r="B47" s="121" t="s">
         <v>297</v>
@@ -11721,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="138" t="s">
         <v>270</v>
       </c>
@@ -11743,7 +11732,7 @@
       <c r="Q48" s="140"/>
       <c r="R48" s="141"/>
     </row>
-    <row r="49" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="219" t="s">
         <v>532</v>
       </c>
@@ -11813,12 +11802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="135" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="279" t="s">
         <v>307</v>
       </c>
@@ -11832,7 +11821,7 @@
       <c r="I52" s="280"/>
       <c r="J52" s="281"/>
     </row>
-    <row r="53" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="276" t="s">
         <v>522</v>
       </c>
@@ -11846,7 +11835,7 @@
       <c r="I53" s="277"/>
       <c r="J53" s="278"/>
     </row>
-    <row r="54" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="255" t="s">
         <v>521</v>
       </c>
@@ -11860,7 +11849,7 @@
       <c r="I54" s="257"/>
       <c r="J54" s="258"/>
     </row>
-    <row r="55" spans="1:18" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="259" t="s">
         <v>529</v>
       </c>
@@ -11939,17 +11928,17 @@
       <selection activeCell="AE2" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="5" width="6.58203125" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.58203125" customWidth="1"/>
-    <col min="8" max="8" width="14.08203125" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="13" width="8.25" customWidth="1"/>
     <col min="14" max="15" width="6.5" customWidth="1"/>
@@ -11957,13 +11946,13 @@
     <col min="17" max="18" width="8.25" customWidth="1"/>
     <col min="19" max="20" width="6.5" customWidth="1"/>
     <col min="21" max="21" width="7" customWidth="1"/>
-    <col min="22" max="22" width="5.58203125" customWidth="1"/>
+    <col min="22" max="22" width="5.625" customWidth="1"/>
     <col min="23" max="36" width="7" customWidth="1"/>
     <col min="37" max="44" width="14.5" customWidth="1"/>
     <col min="45" max="56" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="323" t="s">
         <v>538</v>
@@ -12033,7 +12022,7 @@
       <c r="BC1" s="321"/>
       <c r="BD1" s="322"/>
     </row>
-    <row r="2" spans="1:56" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="123"/>
       <c r="B2" s="123"/>
       <c r="C2" s="123"/>
@@ -12183,7 +12172,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="23.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="124" t="s">
         <v>183</v>
       </c>
@@ -12283,7 +12272,7 @@
       <c r="BC3" s="318"/>
       <c r="BD3" s="319"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="72" t="s">
         <v>235</v>
       </c>
@@ -12435,7 +12424,7 @@
       <c r="BC4" s="248"/>
       <c r="BD4" s="248"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="72" t="s">
         <v>539</v>
       </c>
@@ -12587,7 +12576,7 @@
       <c r="BC5" s="248"/>
       <c r="BD5" s="248"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" s="72" t="s">
         <v>540</v>
       </c>
@@ -12739,7 +12728,7 @@
       <c r="BC6" s="248"/>
       <c r="BD6" s="248"/>
     </row>
-    <row r="7" spans="1:56" ht="23.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="72" t="s">
         <v>276</v>
       </c>
@@ -12891,7 +12880,7 @@
       <c r="BC7" s="248"/>
       <c r="BD7" s="248"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" s="72" t="s">
         <v>275</v>
       </c>
@@ -13043,7 +13032,7 @@
       <c r="BC8" s="248"/>
       <c r="BD8" s="248"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" s="72" t="s">
         <v>278</v>
       </c>
@@ -13195,7 +13184,7 @@
       <c r="BC9" s="248"/>
       <c r="BD9" s="248"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="72" t="s">
         <v>279</v>
       </c>
@@ -13347,7 +13336,7 @@
       <c r="BC10" s="248"/>
       <c r="BD10" s="248"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" s="72" t="s">
         <v>277</v>
       </c>
@@ -13753,31 +13742,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.08203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="32.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
     <col min="9" max="10" width="13.5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="11" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="11" customWidth="1"/>
     <col min="13" max="13" width="11" style="40" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="43" customWidth="1"/>
     <col min="15" max="30" width="12" style="1" customWidth="1"/>
-    <col min="31" max="58" width="5.83203125" style="1" customWidth="1"/>
+    <col min="31" max="58" width="5.875" style="1" customWidth="1"/>
     <col min="59" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -13813,7 +13802,7 @@
       <c r="M1" s="331"/>
       <c r="N1" s="332"/>
     </row>
-    <row r="2" spans="1:14" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -13857,7 +13846,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="334" t="s">
         <v>15</v>
       </c>
@@ -13904,7 +13893,7 @@
         <v>0.86897142857142851</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="334"/>
       <c r="B4" s="15" t="s">
         <v>44</v>
@@ -13937,7 +13926,7 @@
       <c r="M4" s="37"/>
       <c r="N4" s="41"/>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="334"/>
       <c r="B5" s="15" t="s">
         <v>44</v>
@@ -13970,7 +13959,7 @@
       <c r="M5" s="37"/>
       <c r="N5" s="41"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="334"/>
       <c r="B6" s="15" t="s">
         <v>44</v>
@@ -14003,7 +13992,7 @@
       <c r="M6" s="37"/>
       <c r="N6" s="41"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="334" t="s">
         <v>21</v>
       </c>
@@ -14050,7 +14039,7 @@
         <v>0.16928571428571429</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="334"/>
       <c r="B8" s="17" t="s">
         <v>22</v>
@@ -14083,7 +14072,7 @@
       <c r="M8" s="37"/>
       <c r="N8" s="41"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="334"/>
       <c r="B9" s="17" t="s">
         <v>22</v>
@@ -14116,7 +14105,7 @@
       <c r="M9" s="37"/>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="334"/>
       <c r="B10" s="17" t="s">
         <v>22</v>
@@ -14149,7 +14138,7 @@
       <c r="M10" s="37"/>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="334"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -14194,7 +14183,7 @@
         <v>0.67515596330275229</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="334"/>
       <c r="B12" s="6" t="s">
         <v>21</v>
@@ -14227,7 +14216,7 @@
       <c r="M12" s="37"/>
       <c r="N12" s="41"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="334"/>
       <c r="B13" s="6" t="s">
         <v>21</v>
@@ -14260,7 +14249,7 @@
       <c r="M13" s="37"/>
       <c r="N13" s="41"/>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="334"/>
       <c r="B14" s="6" t="s">
         <v>21</v>
@@ -14293,7 +14282,7 @@
       <c r="M14" s="37"/>
       <c r="N14" s="41"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="334"/>
       <c r="B15" s="6" t="s">
         <v>21</v>
@@ -14326,7 +14315,7 @@
       <c r="M15" s="37"/>
       <c r="N15" s="41"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="334"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
@@ -14359,7 +14348,7 @@
       <c r="M16" s="37"/>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="334"/>
       <c r="B17" s="6" t="s">
         <v>21</v>
@@ -14392,7 +14381,7 @@
       <c r="M17" s="37"/>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="334"/>
       <c r="B18" s="6" t="s">
         <v>21</v>
@@ -14425,7 +14414,7 @@
       <c r="M18" s="37"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="334"/>
       <c r="B19" s="6" t="s">
         <v>21</v>
@@ -14458,7 +14447,7 @@
       <c r="M19" s="37"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="6" t="s">
         <v>21</v>
@@ -14491,7 +14480,7 @@
       <c r="M20" s="37"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="334" t="s">
         <v>17</v>
       </c>
@@ -14538,7 +14527,7 @@
         <v>0.27728368794326241</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="334"/>
       <c r="B22" s="17" t="s">
         <v>23</v>
@@ -14571,7 +14560,7 @@
       <c r="M22" s="37"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="334"/>
       <c r="B23" s="6" t="s">
         <v>6</v>
@@ -14616,7 +14605,7 @@
         <v>0.34870000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="334"/>
       <c r="B24" s="6" t="s">
         <v>6</v>
@@ -14649,7 +14638,7 @@
       <c r="M24" s="37"/>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="334"/>
       <c r="B25" s="6" t="s">
         <v>6</v>
@@ -14682,7 +14671,7 @@
       <c r="M25" s="37"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="334"/>
       <c r="B26" s="6" t="s">
         <v>6</v>
@@ -14715,7 +14704,7 @@
       <c r="M26" s="37"/>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="334"/>
       <c r="B27" s="17" t="s">
         <v>18</v>
@@ -14760,7 +14749,7 @@
         <v>9.6250000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="334"/>
       <c r="B28" s="17" t="s">
         <v>18</v>
@@ -14793,7 +14782,7 @@
       <c r="M28" s="37"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="334"/>
       <c r="B29" s="17" t="s">
         <v>18</v>
@@ -14826,7 +14815,7 @@
       <c r="M29" s="37"/>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="334"/>
       <c r="B30" s="17" t="s">
         <v>18</v>
@@ -14859,7 +14848,7 @@
       <c r="M30" s="37"/>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="334"/>
       <c r="B31" s="17" t="s">
         <v>18</v>
@@ -14892,7 +14881,7 @@
       <c r="M31" s="37"/>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="334"/>
       <c r="B32" s="17" t="s">
         <v>18</v>
@@ -14928,7 +14917,7 @@
       </c>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="334"/>
       <c r="B33" s="6" t="s">
         <v>19</v>
@@ -14973,7 +14962,7 @@
         <v>0.62522695035460996</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="334"/>
       <c r="B34" s="6" t="s">
         <v>19</v>
@@ -15006,7 +14995,7 @@
       <c r="M34" s="37"/>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="334"/>
       <c r="B35" s="6" t="s">
         <v>19</v>
@@ -15039,7 +15028,7 @@
       <c r="M35" s="37"/>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="334"/>
       <c r="B36" s="17" t="s">
         <v>58</v>
@@ -15084,7 +15073,7 @@
         <v>0.46508728179551123</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="334"/>
       <c r="B37" s="17" t="s">
         <v>58</v>
@@ -15117,7 +15106,7 @@
       <c r="M37" s="37"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="334"/>
       <c r="B38" s="17" t="s">
         <v>58</v>
@@ -15150,7 +15139,7 @@
       <c r="M38" s="37"/>
       <c r="N38" s="41"/>
     </row>
-    <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="334"/>
       <c r="B39" s="6" t="s">
         <v>20</v>
@@ -15195,7 +15184,7 @@
         <v>0.1401</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="334"/>
       <c r="B40" s="6" t="s">
         <v>20</v>
@@ -15228,7 +15217,7 @@
       <c r="M40" s="37"/>
       <c r="N40" s="41"/>
     </row>
-    <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="334"/>
       <c r="B41" s="6" t="s">
         <v>20</v>
@@ -15261,7 +15250,7 @@
       <c r="M41" s="37"/>
       <c r="N41" s="41"/>
     </row>
-    <row r="42" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="334"/>
       <c r="B42" s="6" t="s">
         <v>20</v>
@@ -15294,7 +15283,7 @@
       <c r="M42" s="37"/>
       <c r="N42" s="41"/>
     </row>
-    <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="334" t="s">
         <v>13</v>
       </c>
@@ -15312,7 +15301,7 @@
       <c r="M43" s="37"/>
       <c r="N43" s="41"/>
     </row>
-    <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="334"/>
       <c r="B44" s="22" t="s">
         <v>14</v>
@@ -15357,7 +15346,7 @@
         <v>0.19699999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="334"/>
       <c r="B45" s="2" t="s">
         <v>114</v>
@@ -15402,7 +15391,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A46" s="334" t="s">
         <v>16</v>
       </c>
@@ -15449,7 +15438,7 @@
         <v>0.16937410071942446</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="334"/>
       <c r="B47" s="2" t="s">
         <v>84</v>
@@ -15482,7 +15471,7 @@
       <c r="M47" s="37"/>
       <c r="N47" s="41"/>
     </row>
-    <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="334"/>
       <c r="B48" s="2" t="s">
         <v>84</v>
@@ -15515,7 +15504,7 @@
       <c r="M48" s="37"/>
       <c r="N48" s="41"/>
     </row>
-    <row r="49" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="181" t="s">
         <v>143</v>
       </c>
@@ -15552,7 +15541,7 @@
       <c r="M49" s="187"/>
       <c r="N49" s="188"/>
     </row>
-    <row r="50" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -15567,7 +15556,7 @@
       <c r="M50" s="38"/>
       <c r="N50" s="42"/>
     </row>
-    <row r="51" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -15588,7 +15577,7 @@
       <c r="M51" s="38"/>
       <c r="N51" s="42"/>
     </row>
-    <row r="52" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -15609,7 +15598,7 @@
       <c r="M52" s="39"/>
       <c r="N52" s="42"/>
     </row>
-    <row r="53" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -15632,7 +15621,7 @@
       <c r="M53" s="39"/>
       <c r="N53" s="42"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D54" s="1" t="s">
         <v>137</v>
       </c>
@@ -15641,7 +15630,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D55" s="1" t="s">
         <v>138</v>
       </c>
@@ -15673,23 +15662,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.58203125" style="335" customWidth="1"/>
+    <col min="1" max="2" width="8.625" style="335" customWidth="1"/>
     <col min="3" max="13" width="9" style="335"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="11.25" customWidth="1"/>
-    <col min="16" max="16" width="11.58203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.58203125" style="48" customWidth="1"/>
-    <col min="19" max="20" width="13.58203125" style="48" customWidth="1"/>
-    <col min="21" max="21" width="11.58203125" style="48" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="48" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.625" style="48" customWidth="1"/>
+    <col min="19" max="20" width="13.625" style="48" customWidth="1"/>
+    <col min="21" max="21" width="11.625" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N1" s="53"/>
       <c r="O1" s="14"/>
       <c r="P1" s="180" t="s">
@@ -15701,7 +15690,7 @@
       <c r="T1" s="180"/>
       <c r="U1" s="180"/>
     </row>
-    <row r="2" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N2" s="54" t="s">
         <v>135</v>
       </c>
@@ -15727,7 +15716,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="14:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="14:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N3" s="54" t="s">
         <v>85</v>
       </c>
@@ -15750,7 +15739,7 @@
       </c>
       <c r="U3" s="45"/>
     </row>
-    <row r="4" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N4" s="75" t="s">
         <v>166</v>
       </c>
@@ -15773,7 +15762,7 @@
       </c>
       <c r="U4" s="45"/>
     </row>
-    <row r="5" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N5" s="54" t="s">
         <v>165</v>
       </c>
@@ -15796,7 +15785,7 @@
       </c>
       <c r="U5" s="45"/>
     </row>
-    <row r="6" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N6" s="54" t="s">
         <v>132</v>
       </c>
@@ -15819,7 +15808,7 @@
       </c>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N7" s="54" t="s">
         <v>80</v>
       </c>
@@ -15842,7 +15831,7 @@
       </c>
       <c r="U7" s="45"/>
     </row>
-    <row r="8" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N8" s="54" t="s">
         <v>136</v>
       </c>
@@ -15865,7 +15854,7 @@
       </c>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N9" s="54" t="s">
         <v>133</v>
       </c>
@@ -15888,7 +15877,7 @@
       </c>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N10" s="54" t="s">
         <v>59</v>
       </c>
@@ -15911,7 +15900,7 @@
       </c>
       <c r="U10" s="45"/>
     </row>
-    <row r="11" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N11" s="54" t="s">
         <v>52</v>
       </c>
@@ -15934,7 +15923,7 @@
       </c>
       <c r="U11" s="45"/>
     </row>
-    <row r="12" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N12" s="54" t="s">
         <v>134</v>
       </c>
@@ -15957,7 +15946,7 @@
       </c>
       <c r="U12" s="45"/>
     </row>
-    <row r="13" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N13" s="56" t="s">
         <v>126</v>
       </c>
@@ -15980,7 +15969,7 @@
       </c>
       <c r="U13" s="45"/>
     </row>
-    <row r="14" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N14" s="54" t="s">
         <v>115</v>
       </c>
@@ -16003,7 +15992,7 @@
       </c>
       <c r="U14" s="45"/>
     </row>
-    <row r="15" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N15" s="57"/>
       <c r="O15" s="34"/>
       <c r="P15" s="46"/>
@@ -16013,7 +16002,7 @@
       <c r="T15" s="46"/>
       <c r="U15" s="46"/>
     </row>
-    <row r="16" spans="14:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="14:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N16" s="54" t="s">
         <v>85</v>
       </c>
@@ -16038,7 +16027,7 @@
       </c>
       <c r="U16" s="45"/>
     </row>
-    <row r="17" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N17" s="54" t="s">
         <v>167</v>
       </c>
@@ -16061,7 +16050,7 @@
       </c>
       <c r="U17" s="45"/>
     </row>
-    <row r="18" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N18" s="54" t="s">
         <v>165</v>
       </c>
@@ -16084,7 +16073,7 @@
       </c>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N19" s="54" t="s">
         <v>140</v>
       </c>
@@ -16107,7 +16096,7 @@
       </c>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N20" s="54" t="s">
         <v>80</v>
       </c>
@@ -16130,7 +16119,7 @@
       </c>
       <c r="U20" s="45"/>
     </row>
-    <row r="21" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N21" s="54" t="s">
         <v>136</v>
       </c>
@@ -16153,7 +16142,7 @@
       </c>
       <c r="U21" s="45"/>
     </row>
-    <row r="22" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N22" s="54" t="s">
         <v>133</v>
       </c>
@@ -16176,7 +16165,7 @@
       </c>
       <c r="U22" s="45"/>
     </row>
-    <row r="23" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N23" s="54" t="s">
         <v>59</v>
       </c>
@@ -16199,7 +16188,7 @@
       </c>
       <c r="U23" s="45"/>
     </row>
-    <row r="24" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N24" s="54" t="s">
         <v>52</v>
       </c>
@@ -16222,7 +16211,7 @@
       </c>
       <c r="U24" s="45"/>
     </row>
-    <row r="25" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N25" s="54" t="s">
         <v>134</v>
       </c>
@@ -16245,7 +16234,7 @@
       </c>
       <c r="U25" s="45"/>
     </row>
-    <row r="26" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N26" s="56" t="s">
         <v>126</v>
       </c>
@@ -16268,7 +16257,7 @@
       </c>
       <c r="U26" s="45"/>
     </row>
-    <row r="27" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N27" s="54" t="s">
         <v>115</v>
       </c>
@@ -16291,7 +16280,7 @@
       </c>
       <c r="U27" s="45"/>
     </row>
-    <row r="28" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N28" s="58"/>
       <c r="O28" s="35"/>
       <c r="P28" s="47"/>
@@ -16301,7 +16290,7 @@
       <c r="T28" s="47"/>
       <c r="U28" s="47"/>
     </row>
-    <row r="29" spans="14:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N29" s="59" t="s">
         <v>85</v>
       </c>
@@ -16317,7 +16306,7 @@
       <c r="T29" s="50"/>
       <c r="U29" s="50"/>
     </row>
-    <row r="30" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N30" s="60" t="s">
         <v>45</v>
       </c>
@@ -16331,7 +16320,7 @@
       <c r="T30" s="50"/>
       <c r="U30" s="50"/>
     </row>
-    <row r="31" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N31" s="59" t="s">
         <v>103</v>
       </c>
@@ -16345,7 +16334,7 @@
       <c r="T31" s="50"/>
       <c r="U31" s="50"/>
     </row>
-    <row r="32" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N32" s="59" t="s">
         <v>132</v>
       </c>
@@ -16359,7 +16348,7 @@
       <c r="T32" s="50"/>
       <c r="U32" s="50"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N33" s="59" t="s">
         <v>80</v>
       </c>
@@ -16373,7 +16362,7 @@
       <c r="T33" s="50"/>
       <c r="U33" s="50"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N34" s="59" t="s">
         <v>136</v>
       </c>
@@ -16387,7 +16376,7 @@
       <c r="T34" s="50"/>
       <c r="U34" s="50"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N35" s="59" t="s">
         <v>133</v>
       </c>
@@ -16401,7 +16390,7 @@
       <c r="T35" s="50"/>
       <c r="U35" s="50"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N36" s="59" t="s">
         <v>59</v>
       </c>
@@ -16415,7 +16404,7 @@
       <c r="T36" s="50"/>
       <c r="U36" s="50"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N37" s="59" t="s">
         <v>52</v>
       </c>
@@ -16429,7 +16418,7 @@
       <c r="T37" s="50"/>
       <c r="U37" s="50"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N38" s="59" t="s">
         <v>134</v>
       </c>
@@ -16443,7 +16432,7 @@
       <c r="T38" s="50"/>
       <c r="U38" s="50"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N39" s="61" t="s">
         <v>126</v>
       </c>
@@ -16457,7 +16446,7 @@
       <c r="T39" s="50"/>
       <c r="U39" s="50"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N40" s="59" t="s">
         <v>115</v>
       </c>
@@ -16471,7 +16460,7 @@
       <c r="T40" s="50"/>
       <c r="U40" s="50"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N42" s="53"/>
       <c r="O42" s="14"/>
       <c r="P42" s="44"/>
@@ -16481,7 +16470,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="44"/>
     </row>
-    <row r="43" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="335"/>
       <c r="B43" s="335"/>
       <c r="C43" s="335"/>
@@ -16520,7 +16509,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="335"/>
       <c r="B44" s="335"/>
       <c r="C44" s="335"/>
@@ -16556,7 +16545,7 @@
       </c>
       <c r="U44" s="63"/>
     </row>
-    <row r="45" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="335"/>
       <c r="B45" s="335"/>
       <c r="C45" s="335"/>
@@ -16592,7 +16581,7 @@
       </c>
       <c r="U45" s="63"/>
     </row>
-    <row r="46" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="335"/>
       <c r="B46" s="335"/>
       <c r="C46" s="335"/>
@@ -16628,7 +16617,7 @@
       </c>
       <c r="U46" s="63"/>
     </row>
-    <row r="47" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="335"/>
       <c r="B47" s="335"/>
       <c r="C47" s="335"/>
@@ -16664,7 +16653,7 @@
       </c>
       <c r="U47" s="63"/>
     </row>
-    <row r="48" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="335"/>
       <c r="B48" s="335"/>
       <c r="C48" s="335"/>
@@ -16700,7 +16689,7 @@
       </c>
       <c r="U48" s="63"/>
     </row>
-    <row r="49" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="335"/>
       <c r="B49" s="335"/>
       <c r="C49" s="335"/>
@@ -16736,7 +16725,7 @@
       </c>
       <c r="U49" s="63"/>
     </row>
-    <row r="50" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="335"/>
       <c r="B50" s="335"/>
       <c r="C50" s="335"/>
@@ -16772,7 +16761,7 @@
       </c>
       <c r="U50" s="63"/>
     </row>
-    <row r="51" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="335"/>
       <c r="B51" s="335"/>
       <c r="C51" s="335"/>
@@ -16808,7 +16797,7 @@
       </c>
       <c r="U51" s="63"/>
     </row>
-    <row r="52" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="335"/>
       <c r="B52" s="335"/>
       <c r="C52" s="335"/>
@@ -16844,7 +16833,7 @@
       </c>
       <c r="U52" s="63"/>
     </row>
-    <row r="53" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="335"/>
       <c r="B53" s="335"/>
       <c r="C53" s="335"/>
@@ -16880,7 +16869,7 @@
       </c>
       <c r="U53" s="63"/>
     </row>
-    <row r="54" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A54" s="335"/>
       <c r="B54" s="335"/>
       <c r="C54" s="335"/>
@@ -16916,7 +16905,7 @@
       </c>
       <c r="U54" s="63"/>
     </row>
-    <row r="55" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="335"/>
       <c r="B55" s="335"/>
       <c r="C55" s="335"/>
@@ -16952,7 +16941,7 @@
       </c>
       <c r="U55" s="63"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N56" s="66" t="s">
         <v>161</v>
       </c>
@@ -16975,7 +16964,7 @@
       </c>
       <c r="U56" s="68"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N57" s="18"/>
       <c r="O57" s="18"/>
       <c r="P57" s="63"/>
@@ -16985,7 +16974,7 @@
       <c r="T57" s="116"/>
       <c r="U57" s="116"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N58" s="67" t="s">
         <v>240</v>
       </c>
@@ -17010,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N59" s="67" t="s">
         <v>287</v>
       </c>
@@ -17040,7 +17029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N60" s="67" t="s">
         <v>257</v>
       </c>
@@ -17092,31 +17081,31 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="83" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="83" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="83" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" style="83" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="83" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" style="83" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="83" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="83" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="83" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="83" customWidth="1"/>
-    <col min="7" max="7" width="6.08203125" style="83" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="83" customWidth="1"/>
     <col min="8" max="8" width="13" style="83" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="83" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="83" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="83" customWidth="1"/>
     <col min="11" max="12" width="8.5" style="83" customWidth="1"/>
-    <col min="13" max="13" width="9.08203125" style="83" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="83" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="83" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="82" t="s">
         <v>184</v>
       </c>
       <c r="B1" s="82"/>
     </row>
-    <row r="2" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -17152,7 +17141,7 @@
       <c r="M2" s="331"/>
       <c r="N2" s="332"/>
     </row>
-    <row r="3" spans="1:14" ht="82" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -17196,7 +17185,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="336" t="s">
         <v>191</v>
       </c>
@@ -17243,7 +17232,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="337"/>
       <c r="B5" s="84" t="s">
         <v>192</v>
@@ -17276,7 +17265,7 @@
       <c r="M5" s="91"/>
       <c r="N5" s="41"/>
     </row>
-    <row r="6" spans="1:14" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="338"/>
       <c r="B6" s="84" t="s">
         <v>192</v>
@@ -17309,7 +17298,7 @@
       <c r="M6" s="91"/>
       <c r="N6" s="41"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>198</v>
       </c>
@@ -17356,7 +17345,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="339" t="s">
         <v>13</v>
       </c>
@@ -17403,7 +17392,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="339"/>
       <c r="B9" s="96" t="s">
         <v>203</v>
@@ -17448,7 +17437,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="340"/>
       <c r="B10" s="97" t="s">
         <v>206</v>
@@ -17493,7 +17482,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="98"/>
       <c r="B11" s="98"/>
       <c r="C11" s="98"/>
@@ -17514,7 +17503,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="98"/>
       <c r="B12" s="98"/>
       <c r="C12" s="98"/>
@@ -17535,7 +17524,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="98"/>
       <c r="B13" s="98"/>
       <c r="C13" s="98"/>
@@ -17556,13 +17545,13 @@
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="82" t="s">
         <v>212</v>
       </c>
       <c r="B15" s="82"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="341" t="s">
         <v>13</v>
       </c>
@@ -17609,7 +17598,7 @@
         <v>7.0500000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="339"/>
       <c r="B17" s="96" t="s">
         <v>213</v>
@@ -17642,7 +17631,7 @@
       <c r="M17" s="101"/>
       <c r="N17" s="101"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="339"/>
       <c r="B18" s="95" t="s">
         <v>213</v>
@@ -17673,7 +17662,7 @@
       <c r="M18" s="87"/>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="339"/>
       <c r="B19" s="95" t="s">
         <v>213</v>
@@ -17704,7 +17693,7 @@
       <c r="M19" s="87"/>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="339"/>
       <c r="B20" s="95" t="s">
         <v>213</v>
@@ -17735,7 +17724,7 @@
       <c r="M20" s="87"/>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="340"/>
       <c r="B21" s="95" t="s">
         <v>213</v>
@@ -17766,7 +17755,7 @@
       <c r="M21" s="87"/>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="103"/>
       <c r="B22" s="103"/>
       <c r="C22" s="103"/>
@@ -17787,7 +17776,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D23" s="92" t="s">
         <v>210</v>
       </c>
@@ -17805,7 +17794,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D24" s="92" t="s">
         <v>211</v>
       </c>
@@ -17823,13 +17812,13 @@
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="82" t="s">
         <v>222</v>
       </c>
       <c r="B26" s="82"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="104" t="s">
         <v>13</v>
       </c>
@@ -17876,7 +17865,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D28" s="92" t="s">
         <v>209</v>
       </c>
@@ -17894,7 +17883,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D29" s="92" t="s">
         <v>225</v>
       </c>
@@ -17912,7 +17901,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D30" s="92" t="s">
         <v>211</v>
       </c>
@@ -17947,21 +17936,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.58203125" customWidth="1"/>
+    <col min="1" max="2" width="8.625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="16" max="19" width="11.08203125" style="48" customWidth="1"/>
-    <col min="20" max="20" width="15.58203125" style="48" customWidth="1"/>
-    <col min="21" max="21" width="11.08203125" style="48" customWidth="1"/>
+    <col min="16" max="19" width="11.125" style="48" customWidth="1"/>
+    <col min="20" max="20" width="15.625" style="48" customWidth="1"/>
+    <col min="21" max="21" width="11.125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N1" s="53"/>
       <c r="O1" s="14"/>
       <c r="P1" s="180" t="s">
@@ -17973,7 +17962,7 @@
       <c r="T1" s="44"/>
       <c r="U1" s="44"/>
     </row>
-    <row r="2" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N2" s="54" t="s">
         <v>135</v>
       </c>
@@ -17999,7 +17988,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="14:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="14:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N3" s="105" t="s">
         <v>193</v>
       </c>
@@ -18022,7 +18011,7 @@
       </c>
       <c r="U3" s="45"/>
     </row>
-    <row r="4" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N4" s="17" t="s">
         <v>199</v>
       </c>
@@ -18045,7 +18034,7 @@
       </c>
       <c r="U4" s="45"/>
     </row>
-    <row r="5" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N5" s="17" t="s">
         <v>201</v>
       </c>
@@ -18068,7 +18057,7 @@
       </c>
       <c r="U5" s="45"/>
     </row>
-    <row r="6" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N6" s="17" t="s">
         <v>204</v>
       </c>
@@ -18091,7 +18080,7 @@
       </c>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N7" s="17" t="s">
         <v>207</v>
       </c>
@@ -18114,7 +18103,7 @@
       </c>
       <c r="U7" s="45"/>
     </row>
-    <row r="8" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N8" s="54"/>
       <c r="O8" s="62"/>
       <c r="P8" s="45"/>
@@ -18124,7 +18113,7 @@
       <c r="T8" s="45"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N9" s="54"/>
       <c r="O9" s="62"/>
       <c r="P9" s="45"/>
@@ -18134,7 +18123,7 @@
       <c r="T9" s="45"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N10" s="54"/>
       <c r="O10" s="62"/>
       <c r="P10" s="45"/>
@@ -18144,7 +18133,7 @@
       <c r="T10" s="45"/>
       <c r="U10" s="45"/>
     </row>
-    <row r="11" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N11" s="54"/>
       <c r="O11" s="62"/>
       <c r="P11" s="45"/>
@@ -18154,7 +18143,7 @@
       <c r="T11" s="45"/>
       <c r="U11" s="45"/>
     </row>
-    <row r="12" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N12" s="54"/>
       <c r="O12" s="62"/>
       <c r="P12" s="45"/>
@@ -18164,7 +18153,7 @@
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
     </row>
-    <row r="13" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N13" s="106"/>
       <c r="O13" s="62"/>
       <c r="P13" s="45"/>
@@ -18174,7 +18163,7 @@
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
     </row>
-    <row r="14" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N14" s="54"/>
       <c r="O14" s="62"/>
       <c r="P14" s="45"/>
@@ -18184,7 +18173,7 @@
       <c r="T14" s="45"/>
       <c r="U14" s="45"/>
     </row>
-    <row r="15" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N15" s="57"/>
       <c r="O15" s="34"/>
       <c r="P15" s="46"/>
@@ -18194,7 +18183,7 @@
       <c r="T15" s="46"/>
       <c r="U15" s="46"/>
     </row>
-    <row r="16" spans="14:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="14:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N16" s="105" t="s">
         <v>193</v>
       </c>
@@ -18219,7 +18208,7 @@
       </c>
       <c r="U16" s="45"/>
     </row>
-    <row r="17" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N17" s="17" t="s">
         <v>199</v>
       </c>
@@ -18242,7 +18231,7 @@
       </c>
       <c r="U17" s="45"/>
     </row>
-    <row r="18" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N18" s="17" t="s">
         <v>201</v>
       </c>
@@ -18265,7 +18254,7 @@
       </c>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N19" s="17" t="s">
         <v>204</v>
       </c>
@@ -18288,7 +18277,7 @@
       </c>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N20" s="17" t="s">
         <v>207</v>
       </c>
@@ -18311,7 +18300,7 @@
       </c>
       <c r="U20" s="45"/>
     </row>
-    <row r="21" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N21" s="54"/>
       <c r="O21" s="36"/>
       <c r="P21" s="45"/>
@@ -18321,7 +18310,7 @@
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
     </row>
-    <row r="22" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N22" s="54"/>
       <c r="O22" s="36"/>
       <c r="P22" s="45"/>
@@ -18331,7 +18320,7 @@
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
     </row>
-    <row r="23" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N23" s="54"/>
       <c r="O23" s="36"/>
       <c r="P23" s="45"/>
@@ -18341,7 +18330,7 @@
       <c r="T23" s="45"/>
       <c r="U23" s="45"/>
     </row>
-    <row r="24" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N24" s="54"/>
       <c r="O24" s="36"/>
       <c r="P24" s="45"/>
@@ -18351,7 +18340,7 @@
       <c r="T24" s="45"/>
       <c r="U24" s="45"/>
     </row>
-    <row r="25" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N25" s="54"/>
       <c r="O25" s="36"/>
       <c r="P25" s="45"/>
@@ -18361,7 +18350,7 @@
       <c r="T25" s="45"/>
       <c r="U25" s="45"/>
     </row>
-    <row r="26" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N26" s="106"/>
       <c r="O26" s="36"/>
       <c r="P26" s="45"/>
@@ -18371,7 +18360,7 @@
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
     </row>
-    <row r="27" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N27" s="54"/>
       <c r="O27" s="36"/>
       <c r="P27" s="45"/>
@@ -18381,7 +18370,7 @@
       <c r="T27" s="45"/>
       <c r="U27" s="45"/>
     </row>
-    <row r="28" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N28" s="58"/>
       <c r="O28" s="35"/>
       <c r="P28" s="47"/>
@@ -18391,7 +18380,7 @@
       <c r="T28" s="47"/>
       <c r="U28" s="47"/>
     </row>
-    <row r="29" spans="14:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N29" s="107" t="s">
         <v>193</v>
       </c>
@@ -18407,7 +18396,7 @@
       <c r="T29" s="50"/>
       <c r="U29" s="50"/>
     </row>
-    <row r="30" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N30" s="108" t="s">
         <v>199</v>
       </c>
@@ -18421,7 +18410,7 @@
       <c r="T30" s="50"/>
       <c r="U30" s="50"/>
     </row>
-    <row r="31" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N31" s="108" t="s">
         <v>201</v>
       </c>
@@ -18435,7 +18424,7 @@
       <c r="T31" s="50"/>
       <c r="U31" s="50"/>
     </row>
-    <row r="32" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N32" s="108" t="s">
         <v>204</v>
       </c>
@@ -18449,7 +18438,7 @@
       <c r="T32" s="50"/>
       <c r="U32" s="50"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N33" s="108" t="s">
         <v>207</v>
       </c>
@@ -18463,7 +18452,7 @@
       <c r="T33" s="50"/>
       <c r="U33" s="50"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N34" s="59"/>
       <c r="O34" s="49"/>
       <c r="P34" s="50"/>
@@ -18473,7 +18462,7 @@
       <c r="T34" s="50"/>
       <c r="U34" s="50"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N35" s="59"/>
       <c r="O35" s="49"/>
       <c r="P35" s="50"/>
@@ -18483,7 +18472,7 @@
       <c r="T35" s="50"/>
       <c r="U35" s="50"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N36" s="59"/>
       <c r="O36" s="49"/>
       <c r="P36" s="50"/>
@@ -18493,7 +18482,7 @@
       <c r="T36" s="50"/>
       <c r="U36" s="50"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N37" s="59"/>
       <c r="O37" s="49"/>
       <c r="P37" s="50"/>
@@ -18503,7 +18492,7 @@
       <c r="T37" s="50"/>
       <c r="U37" s="50"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N38" s="59"/>
       <c r="O38" s="49"/>
       <c r="P38" s="50"/>
@@ -18513,7 +18502,7 @@
       <c r="T38" s="50"/>
       <c r="U38" s="50"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N39" s="109"/>
       <c r="O39" s="49"/>
       <c r="P39" s="50"/>
@@ -18523,7 +18512,7 @@
       <c r="T39" s="50"/>
       <c r="U39" s="50"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N40" s="59"/>
       <c r="O40" s="49"/>
       <c r="P40" s="50"/>
@@ -18533,7 +18522,7 @@
       <c r="T40" s="50"/>
       <c r="U40" s="50"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
       <c r="P42" s="44"/>
@@ -18543,7 +18532,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="44"/>
     </row>
-    <row r="43" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -18580,7 +18569,7 @@
       </c>
       <c r="U43" s="45"/>
     </row>
-    <row r="44" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -18616,7 +18605,7 @@
       </c>
       <c r="U44" s="110"/>
     </row>
-    <row r="45" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -18652,7 +18641,7 @@
       </c>
       <c r="U45" s="110"/>
     </row>
-    <row r="46" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -18688,7 +18677,7 @@
       </c>
       <c r="U46" s="110"/>
     </row>
-    <row r="47" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -18724,7 +18713,7 @@
       </c>
       <c r="U47" s="110"/>
     </row>
-    <row r="48" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -18760,7 +18749,7 @@
       </c>
       <c r="U48" s="110"/>
     </row>
-    <row r="49" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -18783,7 +18772,7 @@
       <c r="T49" s="110"/>
       <c r="U49" s="110"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N50" s="66" t="s">
         <v>228</v>
       </c>
@@ -18808,7 +18797,7 @@
       </c>
       <c r="U50" s="111"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N51" s="5"/>
       <c r="P51" s="112"/>
       <c r="Q51" s="112"/>
@@ -18817,7 +18806,7 @@
       <c r="T51" s="112"/>
       <c r="U51" s="112"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N52" s="67" t="s">
         <v>241</v>
       </c>
@@ -18842,7 +18831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N53" s="67" t="s">
         <v>288</v>
       </c>
@@ -18872,7 +18861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N54" s="69" t="s">
         <v>289</v>
       </c>
@@ -18902,15 +18891,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N55" s="48"/>
       <c r="O55" s="48"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N56" s="48"/>
       <c r="O56" s="48"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N57" s="67" t="s">
         <v>229</v>
       </c>
@@ -18935,7 +18924,7 @@
       </c>
       <c r="U57" s="113"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N58" s="66" t="s">
         <v>230</v>
       </c>
@@ -18960,7 +18949,7 @@
       </c>
       <c r="U58" s="113"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N59" s="66" t="s">
         <v>231</v>
       </c>
@@ -18985,7 +18974,7 @@
       </c>
       <c r="U59" s="113"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N60" s="66" t="s">
         <v>232</v>
       </c>
@@ -19010,7 +18999,7 @@
       </c>
       <c r="U60" s="113"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N61" s="66" t="s">
         <v>233</v>
       </c>
@@ -19035,7 +19024,7 @@
       </c>
       <c r="U61" s="113"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N62" s="66" t="s">
         <v>234</v>
       </c>
@@ -19060,46 +19049,46 @@
       </c>
       <c r="U62" s="113"/>
     </row>
-    <row r="68" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="13:15" x14ac:dyDescent="0.2">
       <c r="O68" s="48"/>
     </row>
-    <row r="69" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="13:15" x14ac:dyDescent="0.2">
       <c r="O69" s="48"/>
     </row>
-    <row r="70" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="13:15" x14ac:dyDescent="0.2">
       <c r="O70" s="48"/>
     </row>
-    <row r="71" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M71" s="48"/>
       <c r="N71" s="48"/>
       <c r="O71" s="48"/>
     </row>
-    <row r="72" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M72" s="48"/>
       <c r="N72" s="48"/>
       <c r="O72" s="48"/>
     </row>
-    <row r="73" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M73" s="48"/>
       <c r="N73" s="48"/>
       <c r="O73" s="48"/>
     </row>
-    <row r="74" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M74" s="48"/>
       <c r="N74" s="48"/>
       <c r="O74" s="48"/>
     </row>
-    <row r="75" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M75" s="48"/>
       <c r="N75" s="48"/>
       <c r="O75" s="48"/>
     </row>
-    <row r="76" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M76" s="48"/>
       <c r="N76" s="48"/>
       <c r="O76" s="48"/>
     </row>
-    <row r="77" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M77" s="48"/>
       <c r="N77" s="48"/>
       <c r="O77" s="48"/>
@@ -19120,25 +19109,25 @@
       <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="2" width="14.08203125" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="21.08203125" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="10.08203125" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
     <col min="11" max="11" width="10.75" customWidth="1"/>
     <col min="12" max="12" width="7.75" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
     <col min="14" max="14" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -19164,7 +19153,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="246"/>
     </row>
-    <row r="2" spans="1:14" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -19202,7 +19191,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="342" t="s">
         <v>21</v>
       </c>
@@ -19248,7 +19237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="342"/>
       <c r="B4" s="343"/>
       <c r="C4" s="345"/>
@@ -19273,7 +19262,7 @@
       <c r="M4" s="352"/>
       <c r="N4" s="352"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="342"/>
       <c r="B5" s="343"/>
       <c r="C5" s="345"/>
@@ -19298,7 +19287,7 @@
       <c r="M5" s="352"/>
       <c r="N5" s="352"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="342"/>
       <c r="B6" s="343"/>
       <c r="C6" s="345"/>
@@ -19323,7 +19312,7 @@
       <c r="M6" s="353"/>
       <c r="N6" s="353"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="342"/>
       <c r="B7" s="282" t="s">
         <v>22</v>
@@ -19366,7 +19355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="342"/>
       <c r="B8" s="282"/>
       <c r="C8" s="282"/>
@@ -19391,7 +19380,7 @@
       <c r="M8" s="353"/>
       <c r="N8" s="353"/>
     </row>
-    <row r="9" spans="1:14" ht="28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="342" t="s">
         <v>158</v>
       </c>
@@ -19436,7 +19425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="342"/>
       <c r="B10" s="343"/>
       <c r="C10" s="344"/>
@@ -19461,7 +19450,7 @@
       <c r="M10" s="352"/>
       <c r="N10" s="352"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="342"/>
       <c r="B11" s="343"/>
       <c r="C11" s="344"/>
@@ -19486,7 +19475,7 @@
       <c r="M11" s="352"/>
       <c r="N11" s="352"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="342"/>
       <c r="B12" s="343"/>
       <c r="C12" s="344"/>
@@ -19511,7 +19500,7 @@
       <c r="M12" s="352"/>
       <c r="N12" s="352"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="342"/>
       <c r="B13" s="343"/>
       <c r="C13" s="344"/>
@@ -19536,7 +19525,7 @@
       <c r="M13" s="352"/>
       <c r="N13" s="352"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="342"/>
       <c r="B14" s="343"/>
       <c r="C14" s="344"/>
@@ -19561,7 +19550,7 @@
       <c r="M14" s="353"/>
       <c r="N14" s="353"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="342"/>
       <c r="B15" s="342" t="s">
         <v>536</v>
@@ -19603,7 +19592,7 @@
       <c r="M15" s="352"/>
       <c r="N15" s="352"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="342"/>
       <c r="B16" s="342"/>
       <c r="C16" s="282"/>
@@ -19628,7 +19617,7 @@
       <c r="M16" s="352"/>
       <c r="N16" s="352"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="342"/>
       <c r="B17" s="342"/>
       <c r="C17" s="282"/>
@@ -19653,7 +19642,7 @@
       <c r="M17" s="352"/>
       <c r="N17" s="352"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="342"/>
       <c r="B18" s="342"/>
       <c r="C18" s="282"/>
@@ -19678,7 +19667,7 @@
       <c r="M18" s="352"/>
       <c r="N18" s="352"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="342"/>
       <c r="B19" s="342"/>
       <c r="C19" s="282"/>
@@ -19703,7 +19692,7 @@
       <c r="M19" s="352"/>
       <c r="N19" s="352"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="342"/>
       <c r="B20" s="342"/>
       <c r="C20" s="282"/>
@@ -19728,7 +19717,7 @@
       <c r="M20" s="352"/>
       <c r="N20" s="352"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="342"/>
       <c r="B21" s="342"/>
       <c r="C21" s="282"/>
@@ -19753,7 +19742,7 @@
       <c r="M21" s="353"/>
       <c r="N21" s="353"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="342"/>
       <c r="B22" s="343" t="s">
         <v>23</v>
@@ -19795,7 +19784,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="342"/>
       <c r="B23" s="343"/>
       <c r="C23" s="345"/>
@@ -19820,7 +19809,7 @@
       <c r="M23" s="352"/>
       <c r="N23" s="352"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="342"/>
       <c r="B24" s="343"/>
       <c r="C24" s="345"/>
@@ -19845,7 +19834,7 @@
       <c r="M24" s="353"/>
       <c r="N24" s="353"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="342"/>
       <c r="B25" s="342" t="s">
         <v>19</v>
@@ -19887,7 +19876,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="342"/>
       <c r="B26" s="342"/>
       <c r="C26" s="282"/>
@@ -19912,7 +19901,7 @@
       <c r="M26" s="353"/>
       <c r="N26" s="353"/>
     </row>
-    <row r="27" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="342"/>
       <c r="B27" s="345" t="s">
         <v>18</v>
@@ -19954,7 +19943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="342"/>
       <c r="B28" s="345"/>
       <c r="C28" s="345"/>
@@ -19979,7 +19968,7 @@
       <c r="M28" s="352"/>
       <c r="N28" s="352"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="342"/>
       <c r="B29" s="345"/>
       <c r="C29" s="345"/>
@@ -20004,7 +19993,7 @@
       <c r="M29" s="353"/>
       <c r="N29" s="353"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="342"/>
       <c r="B30" s="163" t="s">
         <v>159</v>
@@ -20045,7 +20034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="342"/>
       <c r="B31" s="343" t="s">
         <v>20</v>
@@ -20089,7 +20078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="342"/>
       <c r="B32" s="343"/>
       <c r="C32" s="345"/>
@@ -20114,7 +20103,7 @@
       <c r="M32" s="353"/>
       <c r="N32" s="353"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="342" t="s">
         <v>84</v>
       </c>
@@ -20158,7 +20147,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="342"/>
       <c r="B34" s="342"/>
       <c r="C34" s="282"/>
@@ -20183,7 +20172,7 @@
       <c r="M34" s="352"/>
       <c r="N34" s="352"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="342"/>
       <c r="B35" s="342"/>
       <c r="C35" s="282"/>
@@ -20208,7 +20197,7 @@
       <c r="M35" s="352"/>
       <c r="N35" s="352"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="342"/>
       <c r="B36" s="342"/>
       <c r="C36" s="282"/>
@@ -20233,7 +20222,7 @@
       <c r="M36" s="352"/>
       <c r="N36" s="352"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="342"/>
       <c r="B37" s="342"/>
       <c r="C37" s="282"/>
@@ -20258,7 +20247,7 @@
       <c r="M37" s="353"/>
       <c r="N37" s="353"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="347" t="s">
         <v>13</v>
       </c>
@@ -20300,7 +20289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="348"/>
       <c r="B39" s="343"/>
       <c r="C39" s="350"/>
@@ -20325,7 +20314,7 @@
       <c r="M39" s="353"/>
       <c r="N39" s="353"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="348"/>
       <c r="B40" s="163" t="s">
         <v>114</v>
@@ -20357,7 +20346,7 @@
       <c r="M40" s="134"/>
       <c r="N40" s="134"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="348"/>
       <c r="B41" s="165" t="s">
         <v>356</v>
@@ -20398,7 +20387,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="348"/>
       <c r="B42" s="347" t="s">
         <v>358</v>
@@ -20442,7 +20431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="348"/>
       <c r="B43" s="349"/>
       <c r="C43" s="163" t="s">
@@ -20469,7 +20458,7 @@
       <c r="M43" s="353"/>
       <c r="N43" s="353"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="349"/>
       <c r="B44" s="165" t="s">
         <v>362</v>
@@ -20508,7 +20497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="342" t="s">
         <v>191</v>
       </c>
@@ -20556,7 +20545,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="342"/>
       <c r="B46" s="342"/>
       <c r="C46" s="342"/>
@@ -20585,7 +20574,7 @@
       <c r="M46" s="352"/>
       <c r="N46" s="352"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="342"/>
       <c r="B47" s="342"/>
       <c r="C47" s="342"/>
@@ -20614,7 +20603,7 @@
       <c r="M47" s="352"/>
       <c r="N47" s="352"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="342"/>
       <c r="B48" s="342"/>
       <c r="C48" s="342"/>
@@ -20643,7 +20632,7 @@
       <c r="M48" s="352"/>
       <c r="N48" s="352"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="342"/>
       <c r="B49" s="342"/>
       <c r="C49" s="342"/>
@@ -20672,7 +20661,7 @@
       <c r="M49" s="352"/>
       <c r="N49" s="352"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="342"/>
       <c r="B50" s="342"/>
       <c r="C50" s="342"/>
@@ -20697,7 +20686,7 @@
       <c r="M50" s="352"/>
       <c r="N50" s="352"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="342"/>
       <c r="B51" s="342"/>
       <c r="C51" s="342"/>
@@ -20722,7 +20711,7 @@
       <c r="M51" s="352"/>
       <c r="N51" s="352"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="342"/>
       <c r="B52" s="342"/>
       <c r="C52" s="342"/>
@@ -20747,7 +20736,7 @@
       <c r="M52" s="352"/>
       <c r="N52" s="352"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="342"/>
       <c r="B53" s="342"/>
       <c r="C53" s="342"/>
@@ -20772,7 +20761,7 @@
       <c r="M53" s="352"/>
       <c r="N53" s="352"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="342"/>
       <c r="B54" s="342"/>
       <c r="C54" s="342"/>
@@ -20797,7 +20786,7 @@
       <c r="M54" s="352"/>
       <c r="N54" s="352"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="342"/>
       <c r="B55" s="342"/>
       <c r="C55" s="342"/>
@@ -20822,7 +20811,7 @@
       <c r="M55" s="352"/>
       <c r="N55" s="352"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="342"/>
       <c r="B56" s="342"/>
       <c r="C56" s="342"/>
@@ -20847,7 +20836,7 @@
       <c r="M56" s="352"/>
       <c r="N56" s="352"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="342"/>
       <c r="B57" s="342"/>
       <c r="C57" s="342"/>
@@ -20872,7 +20861,7 @@
       <c r="M57" s="352"/>
       <c r="N57" s="352"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="342"/>
       <c r="B58" s="342"/>
       <c r="C58" s="342"/>
@@ -20897,7 +20886,7 @@
       <c r="M58" s="353"/>
       <c r="N58" s="353"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="282" t="s">
         <v>198</v>
       </c>
@@ -20945,7 +20934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="282"/>
       <c r="B60" s="345"/>
       <c r="C60" s="343"/>
@@ -20970,7 +20959,7 @@
       <c r="M60" s="353"/>
       <c r="N60" s="353"/>
     </row>
-    <row r="61" spans="1:14" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="282" t="s">
         <v>13</v>
       </c>
@@ -21018,7 +21007,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="282"/>
       <c r="B62" s="282"/>
       <c r="C62" s="282"/>
@@ -21047,7 +21036,7 @@
       <c r="M62" s="352"/>
       <c r="N62" s="352"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="282"/>
       <c r="B63" s="282"/>
       <c r="C63" s="282"/>
@@ -21076,7 +21065,7 @@
       <c r="M63" s="352"/>
       <c r="N63" s="352"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="282"/>
       <c r="B64" s="282"/>
       <c r="C64" s="282"/>
@@ -21105,7 +21094,7 @@
       <c r="M64" s="352"/>
       <c r="N64" s="352"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="282"/>
       <c r="B65" s="282"/>
       <c r="C65" s="282"/>
@@ -21134,7 +21123,7 @@
       <c r="M65" s="352"/>
       <c r="N65" s="352"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="282"/>
       <c r="B66" s="282"/>
       <c r="C66" s="282"/>
@@ -21163,7 +21152,7 @@
       <c r="M66" s="352"/>
       <c r="N66" s="352"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="282"/>
       <c r="B67" s="282"/>
       <c r="C67" s="282"/>
@@ -21192,7 +21181,7 @@
       <c r="M67" s="352"/>
       <c r="N67" s="352"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="282"/>
       <c r="B68" s="282"/>
       <c r="C68" s="282"/>
@@ -21221,7 +21210,7 @@
       <c r="M68" s="352"/>
       <c r="N68" s="352"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="282"/>
       <c r="B69" s="282"/>
       <c r="C69" s="282"/>
@@ -21246,7 +21235,7 @@
       <c r="M69" s="352"/>
       <c r="N69" s="352"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="282"/>
       <c r="B70" s="282"/>
       <c r="C70" s="282"/>
@@ -21271,7 +21260,7 @@
       <c r="M70" s="352"/>
       <c r="N70" s="352"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="282"/>
       <c r="B71" s="282"/>
       <c r="C71" s="282"/>
@@ -21296,7 +21285,7 @@
       <c r="M71" s="353"/>
       <c r="N71" s="353"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="282"/>
       <c r="B72" s="166" t="s">
         <v>203</v>
@@ -21341,7 +21330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="282"/>
       <c r="B73" s="282" t="s">
         <v>206</v>
@@ -21383,7 +21372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="282"/>
       <c r="B74" s="282"/>
       <c r="C74" s="282"/>
@@ -21408,7 +21397,7 @@
       <c r="M74" s="353"/>
       <c r="N74" s="353"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="282" t="s">
         <v>13</v>
       </c>
@@ -21454,7 +21443,7 @@
         <v>346.2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="282"/>
       <c r="B76" s="345"/>
       <c r="C76" s="345"/>
@@ -21483,7 +21472,7 @@
       <c r="M76" s="352"/>
       <c r="N76" s="352"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="282"/>
       <c r="B77" s="345"/>
       <c r="C77" s="345"/>
@@ -21512,7 +21501,7 @@
       <c r="M77" s="352"/>
       <c r="N77" s="352"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="282"/>
       <c r="B78" s="345"/>
       <c r="C78" s="345"/>
@@ -21541,7 +21530,7 @@
       <c r="M78" s="352"/>
       <c r="N78" s="352"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="282"/>
       <c r="B79" s="345"/>
       <c r="C79" s="345"/>
@@ -21570,7 +21559,7 @@
       <c r="M79" s="352"/>
       <c r="N79" s="352"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="282"/>
       <c r="B80" s="345"/>
       <c r="C80" s="345"/>
@@ -21599,7 +21588,7 @@
       <c r="M80" s="352"/>
       <c r="N80" s="352"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="282"/>
       <c r="B81" s="345"/>
       <c r="C81" s="345"/>
@@ -21628,7 +21617,7 @@
       <c r="M81" s="352"/>
       <c r="N81" s="352"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="282"/>
       <c r="B82" s="345"/>
       <c r="C82" s="345"/>
@@ -21657,7 +21646,7 @@
       <c r="M82" s="352"/>
       <c r="N82" s="352"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="282"/>
       <c r="B83" s="345"/>
       <c r="C83" s="345"/>
@@ -21686,7 +21675,7 @@
       <c r="M83" s="352"/>
       <c r="N83" s="352"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="282"/>
       <c r="B84" s="345"/>
       <c r="C84" s="345"/>
@@ -21715,7 +21704,7 @@
       <c r="M84" s="352"/>
       <c r="N84" s="352"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="282"/>
       <c r="B85" s="345"/>
       <c r="C85" s="345"/>
@@ -21744,7 +21733,7 @@
       <c r="M85" s="352"/>
       <c r="N85" s="352"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="282"/>
       <c r="B86" s="345"/>
       <c r="C86" s="345"/>
@@ -21773,7 +21762,7 @@
       <c r="M86" s="352"/>
       <c r="N86" s="352"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="282"/>
       <c r="B87" s="345"/>
       <c r="C87" s="345"/>
@@ -21802,7 +21791,7 @@
       <c r="M87" s="352"/>
       <c r="N87" s="352"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="282"/>
       <c r="B88" s="345"/>
       <c r="C88" s="345"/>
@@ -21831,7 +21820,7 @@
       <c r="M88" s="352"/>
       <c r="N88" s="352"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="282"/>
       <c r="B89" s="345"/>
       <c r="C89" s="345"/>
@@ -21860,7 +21849,7 @@
       <c r="M89" s="352"/>
       <c r="N89" s="352"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="282"/>
       <c r="B90" s="345"/>
       <c r="C90" s="345"/>
@@ -21889,7 +21878,7 @@
       <c r="M90" s="352"/>
       <c r="N90" s="352"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="282"/>
       <c r="B91" s="345"/>
       <c r="C91" s="345"/>
@@ -21918,7 +21907,7 @@
       <c r="M91" s="352"/>
       <c r="N91" s="352"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="282"/>
       <c r="B92" s="345"/>
       <c r="C92" s="345"/>
@@ -21947,7 +21936,7 @@
       <c r="M92" s="352"/>
       <c r="N92" s="352"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="282"/>
       <c r="B93" s="345"/>
       <c r="C93" s="345"/>
@@ -21976,7 +21965,7 @@
       <c r="M93" s="352"/>
       <c r="N93" s="352"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="282"/>
       <c r="B94" s="345"/>
       <c r="C94" s="345"/>
@@ -22005,7 +21994,7 @@
       <c r="M94" s="352"/>
       <c r="N94" s="352"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="282"/>
       <c r="B95" s="345"/>
       <c r="C95" s="345"/>
@@ -22034,7 +22023,7 @@
       <c r="M95" s="352"/>
       <c r="N95" s="352"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="282"/>
       <c r="B96" s="345"/>
       <c r="C96" s="345"/>
@@ -22063,7 +22052,7 @@
       <c r="M96" s="352"/>
       <c r="N96" s="352"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="282"/>
       <c r="B97" s="345"/>
       <c r="C97" s="345"/>
@@ -22092,7 +22081,7 @@
       <c r="M97" s="352"/>
       <c r="N97" s="352"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="282"/>
       <c r="B98" s="345"/>
       <c r="C98" s="345"/>
@@ -22121,7 +22110,7 @@
       <c r="M98" s="352"/>
       <c r="N98" s="352"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="282"/>
       <c r="B99" s="345"/>
       <c r="C99" s="345"/>
@@ -22150,7 +22139,7 @@
       <c r="M99" s="352"/>
       <c r="N99" s="352"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="282"/>
       <c r="B100" s="345"/>
       <c r="C100" s="345"/>
@@ -22173,7 +22162,7 @@
       <c r="M100" s="352"/>
       <c r="N100" s="352"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="282"/>
       <c r="B101" s="345"/>
       <c r="C101" s="345"/>
@@ -22196,7 +22185,7 @@
       <c r="M101" s="352"/>
       <c r="N101" s="352"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="282"/>
       <c r="B102" s="345"/>
       <c r="C102" s="345"/>
@@ -22219,7 +22208,7 @@
       <c r="M102" s="352"/>
       <c r="N102" s="352"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="282"/>
       <c r="B103" s="345"/>
       <c r="C103" s="345"/>
@@ -22242,7 +22231,7 @@
       <c r="M103" s="352"/>
       <c r="N103" s="352"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="282"/>
       <c r="B104" s="345"/>
       <c r="C104" s="345"/>
@@ -22265,7 +22254,7 @@
       <c r="M104" s="352"/>
       <c r="N104" s="352"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="282"/>
       <c r="B105" s="345"/>
       <c r="C105" s="345"/>
@@ -22288,7 +22277,7 @@
       <c r="M105" s="352"/>
       <c r="N105" s="352"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="282"/>
       <c r="B106" s="345"/>
       <c r="C106" s="345"/>
@@ -22311,7 +22300,7 @@
       <c r="M106" s="352"/>
       <c r="N106" s="352"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="282"/>
       <c r="B107" s="345"/>
       <c r="C107" s="345"/>
@@ -22334,7 +22323,7 @@
       <c r="M107" s="352"/>
       <c r="N107" s="352"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="282"/>
       <c r="B108" s="345"/>
       <c r="C108" s="345"/>
@@ -22357,7 +22346,7 @@
       <c r="M108" s="352"/>
       <c r="N108" s="352"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="282"/>
       <c r="B109" s="345"/>
       <c r="C109" s="345"/>
@@ -22380,7 +22369,7 @@
       <c r="M109" s="352"/>
       <c r="N109" s="352"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="282"/>
       <c r="B110" s="345"/>
       <c r="C110" s="345"/>
@@ -22403,7 +22392,7 @@
       <c r="M110" s="352"/>
       <c r="N110" s="352"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="282"/>
       <c r="B111" s="345"/>
       <c r="C111" s="345"/>
@@ -22426,7 +22415,7 @@
       <c r="M111" s="352"/>
       <c r="N111" s="352"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="282"/>
       <c r="B112" s="345"/>
       <c r="C112" s="345"/>
@@ -22449,7 +22438,7 @@
       <c r="M112" s="352"/>
       <c r="N112" s="352"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="282"/>
       <c r="B113" s="345"/>
       <c r="C113" s="345"/>
@@ -22472,7 +22461,7 @@
       <c r="M113" s="352"/>
       <c r="N113" s="352"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="282"/>
       <c r="B114" s="345"/>
       <c r="C114" s="345"/>
@@ -22495,7 +22484,7 @@
       <c r="M114" s="352"/>
       <c r="N114" s="352"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="282"/>
       <c r="B115" s="345"/>
       <c r="C115" s="345"/>
@@ -22518,7 +22507,7 @@
       <c r="M115" s="352"/>
       <c r="N115" s="352"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="282"/>
       <c r="B116" s="345"/>
       <c r="C116" s="345"/>
@@ -22541,7 +22530,7 @@
       <c r="M116" s="352"/>
       <c r="N116" s="352"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="282"/>
       <c r="B117" s="345"/>
       <c r="C117" s="345"/>
@@ -22564,7 +22553,7 @@
       <c r="M117" s="352"/>
       <c r="N117" s="352"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="282"/>
       <c r="B118" s="345"/>
       <c r="C118" s="345"/>
@@ -22587,7 +22576,7 @@
       <c r="M118" s="352"/>
       <c r="N118" s="352"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="282"/>
       <c r="B119" s="345"/>
       <c r="C119" s="345"/>
@@ -22610,7 +22599,7 @@
       <c r="M119" s="352"/>
       <c r="N119" s="352"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="282"/>
       <c r="B120" s="345"/>
       <c r="C120" s="345"/>
@@ -22633,7 +22622,7 @@
       <c r="M120" s="353"/>
       <c r="N120" s="353"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -22650,10 +22639,10 @@
       <c r="M121" s="167"/>
       <c r="N121" s="167"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K122" s="167"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="168" t="s">
         <v>537</v>
       </c>
@@ -22661,7 +22650,7 @@
       <c r="G123" s="120"/>
       <c r="K123" s="167"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="169" t="s">
         <v>479</v>
       </c>
@@ -22675,7 +22664,7 @@
       <c r="G124" s="120"/>
       <c r="K124" s="167"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="103" t="s">
         <v>481</v>
       </c>
@@ -22689,7 +22678,7 @@
       <c r="G125" s="120"/>
       <c r="K125" s="167"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="103" t="s">
         <v>481</v>
       </c>
@@ -22703,7 +22692,7 @@
       <c r="G126" s="120"/>
       <c r="K126" s="167"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="103" t="s">
         <v>481</v>
       </c>
@@ -22717,7 +22706,7 @@
       <c r="G127" s="120"/>
       <c r="K127" s="167"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="103" t="s">
         <v>481</v>
       </c>
@@ -22731,7 +22720,7 @@
       <c r="G128" s="120"/>
       <c r="K128" s="167"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="103" t="s">
         <v>481</v>
       </c>
@@ -22745,7 +22734,7 @@
       <c r="G129" s="120"/>
       <c r="K129" s="167"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="103" t="s">
         <v>481</v>
       </c>
@@ -22759,7 +22748,7 @@
       <c r="G130" s="120"/>
       <c r="K130" s="167"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="103" t="s">
         <v>481</v>
       </c>
@@ -22773,7 +22762,7 @@
       <c r="G131" s="120"/>
       <c r="K131" s="167"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="103" t="s">
         <v>481</v>
       </c>
@@ -22787,7 +22776,7 @@
       <c r="G132" s="120"/>
       <c r="K132" s="167"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="103" t="s">
         <v>481</v>
       </c>
@@ -22801,7 +22790,7 @@
       <c r="G133" s="120"/>
       <c r="K133" s="167"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="103" t="s">
         <v>481</v>
       </c>
@@ -22815,7 +22804,7 @@
       <c r="G134" s="120"/>
       <c r="K134" s="167"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="103" t="s">
         <v>481</v>
       </c>
@@ -22829,7 +22818,7 @@
       <c r="G135" s="120"/>
       <c r="K135" s="167"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="103" t="s">
         <v>481</v>
       </c>
@@ -22843,7 +22832,7 @@
       <c r="G136" s="120"/>
       <c r="K136" s="167"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="103" t="s">
         <v>493</v>
       </c>
@@ -22857,7 +22846,7 @@
       <c r="G137" s="120"/>
       <c r="K137" s="167"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="103" t="s">
         <v>493</v>
       </c>
@@ -22871,7 +22860,7 @@
       <c r="G138" s="120"/>
       <c r="K138" s="167"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="103" t="s">
         <v>493</v>
       </c>
@@ -22885,7 +22874,7 @@
       <c r="G139" s="120"/>
       <c r="K139" s="167"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="103" t="s">
         <v>493</v>
       </c>
@@ -22899,7 +22888,7 @@
       <c r="G140" s="120"/>
       <c r="K140" s="167"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="103" t="s">
         <v>493</v>
       </c>
@@ -22913,7 +22902,7 @@
       <c r="G141" s="120"/>
       <c r="K141" s="167"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="103" t="s">
         <v>493</v>
       </c>
@@ -22927,7 +22916,7 @@
       <c r="G142" s="120"/>
       <c r="K142" s="167"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="103" t="s">
         <v>493</v>
       </c>
@@ -22941,7 +22930,7 @@
       <c r="G143" s="120"/>
       <c r="K143" s="167"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="103" t="s">
         <v>501</v>
       </c>
@@ -22955,7 +22944,7 @@
       <c r="G144" s="120"/>
       <c r="K144" s="167"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="103" t="s">
         <v>503</v>
       </c>
@@ -22969,7 +22958,7 @@
       <c r="G145" s="120"/>
       <c r="K145" s="167"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="103" t="s">
         <v>503</v>
       </c>
@@ -22983,7 +22972,7 @@
       <c r="G146" s="120"/>
       <c r="K146" s="167"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="103" t="s">
         <v>503</v>
       </c>
@@ -22997,7 +22986,7 @@
       <c r="G147" s="120"/>
       <c r="K147" s="167"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="103" t="s">
         <v>507</v>
       </c>
@@ -23011,7 +23000,7 @@
       <c r="G148" s="120"/>
       <c r="K148" s="167"/>
     </row>
-    <row r="149" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="103" t="s">
         <v>509</v>
       </c>
@@ -23025,7 +23014,7 @@
       <c r="G149" s="120"/>
       <c r="K149" s="167"/>
     </row>
-    <row r="150" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B150" s="170" t="s">
         <v>118</v>
       </c>
@@ -23037,7 +23026,7 @@
       <c r="G150" s="120"/>
       <c r="K150" s="167"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E151" s="120"/>
       <c r="G151" s="120"/>
       <c r="K151" s="167"/>
@@ -23132,18 +23121,18 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" customWidth="1"/>
-    <col min="2" max="2" width="16.08203125" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" customWidth="1"/>
-    <col min="4" max="5" width="7.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="5" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -23161,7 +23150,7 @@
       </c>
       <c r="H1" s="78"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="74"/>
@@ -23181,7 +23170,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="354" t="s">
         <v>21</v>
       </c>
@@ -23199,7 +23188,7 @@
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="355"/>
       <c r="B4" s="17" t="s">
         <v>22</v>
@@ -23215,7 +23204,7 @@
       <c r="G4" s="72"/>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>158</v>
       </c>
@@ -23233,7 +23222,7 @@
       <c r="G5" s="72"/>
       <c r="H5" s="72"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="354" t="s">
         <v>17</v>
       </c>
@@ -23251,7 +23240,7 @@
       <c r="G6" s="72"/>
       <c r="H6" s="72"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="356"/>
       <c r="B7" s="72" t="s">
         <v>23</v>
@@ -23267,7 +23256,7 @@
       <c r="G7" s="72"/>
       <c r="H7" s="72"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="356"/>
       <c r="B8" s="72" t="s">
         <v>19</v>
@@ -23283,7 +23272,7 @@
       <c r="G8" s="72"/>
       <c r="H8" s="72"/>
     </row>
-    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="356"/>
       <c r="B9" s="17" t="s">
         <v>18</v>
@@ -23299,7 +23288,7 @@
       <c r="G9" s="72"/>
       <c r="H9" s="72"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="356"/>
       <c r="B10" s="72" t="s">
         <v>159</v>
@@ -23315,7 +23304,7 @@
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="355"/>
       <c r="B11" s="72" t="s">
         <v>20</v>
@@ -23331,7 +23320,7 @@
       <c r="G11" s="72"/>
       <c r="H11" s="72"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
@@ -23349,7 +23338,7 @@
       <c r="G12" s="72"/>
       <c r="H12" s="72"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="351" t="s">
         <v>13</v>
       </c>
@@ -23367,7 +23356,7 @@
       <c r="G13" s="72"/>
       <c r="H13" s="72"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="353"/>
       <c r="B14" s="72" t="s">
         <v>114</v>
@@ -23383,7 +23372,7 @@
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
         <v>191</v>
       </c>
@@ -23399,7 +23388,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>198</v>
       </c>
@@ -23415,7 +23404,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="282" t="s">
         <v>13</v>
       </c>
@@ -23431,7 +23420,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="282"/>
       <c r="B18" s="117" t="s">
         <v>203</v>
@@ -23445,7 +23434,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="282"/>
       <c r="B19" s="17" t="s">
         <v>206</v>
@@ -23459,7 +23448,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>13</v>
       </c>
